--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/git/cs229-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F091A5-4861-7641-B7CF-75113467C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2D1354-F9D4-5043-BF32-BA82F3E76ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="160" windowWidth="38240" windowHeight="21280" xr2:uid="{B4006BF6-1BA4-EA49-9D3B-5EF75F4C839C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="172">
   <si>
     <t>modal run modal_train_sam --data_dir /data --model_type segformer --encoder_name mit_b0 --mode 4</t>
   </si>
@@ -507,13 +507,58 @@
   </si>
   <si>
     <t>SAM -&gt;</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 0.00</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 0.00</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 0.00</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 0.00</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 48.22 </t>
+  </si>
+  <si>
+    <t>mean F1: 49.10 </t>
+  </si>
+  <si>
+    <t>OA: 96.45</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 24.71</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 26.66</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 14.71</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 25.65</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 52.82 </t>
+  </si>
+  <si>
+    <t>mean F1: 60.45 </t>
+  </si>
+  <si>
+    <t>This one</t>
+  </si>
+  <si>
+    <t>running</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,6 +608,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -584,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -602,6 +654,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E893F03D-CA65-7942-8DF2-E427A75395A5}">
-  <dimension ref="B1:O19"/>
+  <dimension ref="B1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,6 +1088,9 @@
       <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1067,6 +1123,9 @@
       <c r="N4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="5" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1099,6 +1158,9 @@
       <c r="N5" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="6" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1131,6 +1193,9 @@
       <c r="N6" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1163,6 +1228,9 @@
       <c r="N7" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -1195,6 +1263,9 @@
       <c r="N8" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -1227,6 +1298,9 @@
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
@@ -1256,6 +1330,9 @@
       <c r="N10" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -1288,6 +1365,9 @@
       <c r="N12" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -1299,7 +1379,7 @@
       <c r="D13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1320,9 +1400,12 @@
       <c r="N13" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1351,6 +1434,9 @@
       </c>
       <c r="N14" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="17" x14ac:dyDescent="0.2">
@@ -1378,11 +1464,14 @@
       <c r="K15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="17" x14ac:dyDescent="0.2">
@@ -1410,14 +1499,17 @@
       <c r="K16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O16" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>153</v>
       </c>
@@ -1442,14 +1534,17 @@
       <c r="K17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>154</v>
       </c>
@@ -1474,14 +1569,17 @@
       <c r="K18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="9" t="s">
         <v>50</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>155</v>
       </c>
@@ -1491,7 +1589,7 @@
       <c r="D19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1512,6 +1610,23 @@
       <c r="N19" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="O19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/git/cs229-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2D1354-F9D4-5043-BF32-BA82F3E76ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F94003-FEFC-554E-89A6-3A3215AF499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="160" windowWidth="38240" windowHeight="21280" xr2:uid="{B4006BF6-1BA4-EA49-9D3B-5EF75F4C839C}"/>
+    <workbookView xWindow="4420" yWindow="640" windowWidth="24980" windowHeight="18480" xr2:uid="{B4006BF6-1BA4-EA49-9D3B-5EF75F4C839C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="217">
   <si>
     <t>modal run modal_train_sam --data_dir /data --model_type segformer --encoder_name mit_b0 --mode 4</t>
   </si>
@@ -552,6 +552,141 @@
   </si>
   <si>
     <t>running</t>
+  </si>
+  <si>
+    <t>modal run --detach -m modal_train_sf --data_dir /data --model_type unet --encoder_name mit_b0 --num_steps 10000 --num_steps_stop 10000</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 25.36</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 66.12</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 22.45</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 36.66</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 57.07 </t>
+  </si>
+  <si>
+    <t>mean F1: 66.16 </t>
+  </si>
+  <si>
+    <t>OA: 91.88</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 24.38</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 19.95</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 12.33</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 21.95</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 52.02 </t>
+  </si>
+  <si>
+    <t>mean F1: 58.81 </t>
+  </si>
+  <si>
+    <t>OA: 91.80</t>
+  </si>
+  <si>
+    <t>modal run --detach -m modal_train_sam --data_dir /data --model_type deeplabv3plus --encoder_name mit_b0 --mode 4 --num_steps 10000 --num_steps_stop 10000</t>
+  </si>
+  <si>
+    <t>modal run --detach -m modal_train_sam --data_dir /data --model_type segformer --encoder_name mit_b0 --mode 4 --num_steps 10000 --num_steps_stop 10000</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 28.49</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 72.42</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 25.70</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 40.90</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 59.04 </t>
+  </si>
+  <si>
+    <t>mean F1: 68.46 </t>
+  </si>
+  <si>
+    <t>OA: 92.56</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 28.42</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 32.28</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 17.80</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 30.23</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 54.52 </t>
+  </si>
+  <si>
+    <t>mean F1: 62.82 </t>
+  </si>
+  <si>
+    <t>OA: 91.39</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 17.42</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 84.08</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 16.86</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 28.85</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 50.84 </t>
+  </si>
+  <si>
+    <t>mean F1: 60.32 </t>
+  </si>
+  <si>
+    <t>OA: 85.27</t>
+  </si>
+  <si>
+    <t>===&gt;fire Precision: 27.19</t>
+  </si>
+  <si>
+    <t>===&gt;fire Recall: 55.47</t>
+  </si>
+  <si>
+    <t>===&gt;fire IoU: 22.32</t>
+  </si>
+  <si>
+    <t>===&gt;fire F1: 36.49</t>
+  </si>
+  <si>
+    <t>===&gt; mIoU: 55.40 </t>
+  </si>
+  <si>
+    <t>mean F1: 65.19 </t>
+  </si>
+  <si>
+    <t>OA: 88.85</t>
   </si>
 </sst>
 </file>
@@ -989,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E893F03D-CA65-7942-8DF2-E427A75395A5}">
-  <dimension ref="B1:O24"/>
+  <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,14 +1145,17 @@
     <col min="13" max="13" width="26.6640625" customWidth="1"/>
     <col min="14" max="14" width="27.1640625" customWidth="1"/>
     <col min="15" max="15" width="30.1640625" customWidth="1"/>
+    <col min="17" max="17" width="39.83203125" customWidth="1"/>
+    <col min="18" max="18" width="47.83203125" customWidth="1"/>
+    <col min="19" max="19" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="J1" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="2:15" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>142</v>
       </c>
@@ -1056,8 +1194,17 @@
       <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="Q2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1091,8 +1238,17 @@
       <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
@@ -1126,8 +1282,17 @@
       <c r="O4" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>144</v>
       </c>
@@ -1161,8 +1326,17 @@
       <c r="O5" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
@@ -1196,8 +1370,17 @@
       <c r="O6" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>146</v>
       </c>
@@ -1231,8 +1414,17 @@
       <c r="O7" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>147</v>
       </c>
@@ -1266,8 +1458,17 @@
       <c r="O8" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
@@ -1301,8 +1502,17 @@
       <c r="O9" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>133</v>
       </c>
@@ -1333,8 +1543,17 @@
       <c r="O10" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="Q10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1368,8 +1587,17 @@
       <c r="O12" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="Q12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>149</v>
       </c>
@@ -1403,8 +1631,17 @@
       <c r="O13" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="Q13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="14" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>150</v>
       </c>
@@ -1438,8 +1675,17 @@
       <c r="O14" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="Q14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="15" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>151</v>
       </c>
@@ -1473,8 +1719,17 @@
       <c r="O15" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="Q15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="16" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>152</v>
       </c>
@@ -1508,8 +1763,17 @@
       <c r="O16" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="Q16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="17" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>153</v>
       </c>
@@ -1543,8 +1807,17 @@
       <c r="O17" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="Q17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="18" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>154</v>
       </c>
@@ -1578,8 +1851,17 @@
       <c r="O18" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="Q18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="19" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>155</v>
       </c>
@@ -1613,8 +1895,17 @@
       <c r="O19" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="Q19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="22" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>170</v>
       </c>
@@ -1625,7 +1916,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/git/cs229-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F94003-FEFC-554E-89A6-3A3215AF499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA37AE4-D3EE-CF4B-AE47-6179E8EF5B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="640" windowWidth="24980" windowHeight="18480" xr2:uid="{B4006BF6-1BA4-EA49-9D3B-5EF75F4C839C}"/>
   </bookViews>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E893F03D-CA65-7942-8DF2-E427A75395A5}">
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/git/cs229-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA37AE4-D3EE-CF4B-AE47-6179E8EF5B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1313D1-1DD8-6547-80B0-8EC178856ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="640" windowWidth="24980" windowHeight="18480" xr2:uid="{B4006BF6-1BA4-EA49-9D3B-5EF75F4C839C}"/>
+    <workbookView xWindow="13420" yWindow="1560" windowWidth="24980" windowHeight="18480" xr2:uid="{B4006BF6-1BA4-EA49-9D3B-5EF75F4C839C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E893F03D-CA65-7942-8DF2-E427A75395A5}">
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E3:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
